--- a/biology/Botanique/Lycopodiella_cernua/Lycopodiella_cernua.xlsx
+++ b/biology/Botanique/Lycopodiella_cernua/Lycopodiella_cernua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopodiella cernua est une espèce de lycopodes de la famille des Lycopodiaceae. Présente dans la plupart des régions tropicales et subtropicales, cette espèce a une des répartitions géographiques les plus vastes de sa famille. Elle est parfois cultivée.
-D'après des publications récentes (2014, 2015[3]), le nom correct à retenir pour désigner cette espèce est Palhinhaea cernua (L.) Vasc. &amp; Franco, et le nom Lycopodiella cernua (L.) Pic. Serm. doit être considéré comme un synonyme nomenclatural.
-Elle est connue en Guyane sous les noms de patte d'araignée [pat-arengnen], mâle verge [mal-verj] (créole guyanais), waraku awak (Palikur), lycopode (Français), palma-de-São-Ioão (brésilien)[4], ou dans le monde anglophone staghorn clubmoss[5] ou encore wāwaeʻiole (nourriture des rats) à Hawaï, 過山龍 à Taïwan, Thông đất au Vietnam.
+D'après des publications récentes (2014, 2015), le nom correct à retenir pour désigner cette espèce est Palhinhaea cernua (L.) Vasc. &amp; Franco, et le nom Lycopodiella cernua (L.) Pic. Serm. doit être considéré comme un synonyme nomenclatural.
+Elle est connue en Guyane sous les noms de patte d'araignée [pat-arengnen], mâle verge [mal-verj] (créole guyanais), waraku awak (Palikur), lycopode (Français), palma-de-São-Ioão (brésilien), ou dans le monde anglophone staghorn clubmoss ou encore wāwaeʻiole (nourriture des rats) à Hawaï, 過山龍 à Taïwan, Thông đất au Vietnam.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopodiella cernua est présente dans les savanes d'altitude aux Petites Antilles, sur les talus des pistes forestières et les radeaux de végétation flottante marécageuse de la région côtière en Guyane.
 Elle affectionne les milieux tourbeux du sud des États-Unis, et de Hawaii.
-On la rencontre également en Asie du Sud-Est[6], en Australie[7], en Europe du Sud (Sicile en Italie, aux Açores[8] et à Valongo au Portugal, en Espagne), en Afrique tropicale et du sud[9], à Madagascar et dans les Mascareignes, et du sud des États-Unis[10] à l'Amérique du Sud[11].
+On la rencontre également en Asie du Sud-Est, en Australie, en Europe du Sud (Sicile en Italie, aux Açores et à Valongo au Portugal, en Espagne), en Afrique tropicale et du sud, à Madagascar et dans les Mascareignes, et du sud des États-Unis à l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Lycopodiella cernua est utilisée pour éloigner les mauvais esprits chez les Créoles guyanais. Les émigrés javanais du Suriname fument cette plante sous forme de cigarette comme succédané du tabac (elle contient de la nicotine). Les Palikur l'emploient pour des bains fébrifuges, ou en décoction salée contre les envenimations d'araignées[4]. Elle est aussi utilisée pour agrémenter des bouquets floraux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Lycopodiella cernua est utilisée pour éloigner les mauvais esprits chez les Créoles guyanais. Les émigrés javanais du Suriname fument cette plante sous forme de cigarette comme succédané du tabac (elle contient de la nicotine). Les Palikur l'emploient pour des bains fébrifuges, ou en décoction salée contre les envenimations d'araignées. Elle est aussi utilisée pour agrémenter des bouquets floraux.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (27 mai 2017)[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (27 mai 2017) :
 variété Lycopodiella cernua var. cernua
 variété Lycopodiella cernua var. curvata (Sw.) Kartesz &amp; Gandhi
 variété Lycopodiella cernua var. sikkimensis Panigrahi &amp; Sarn. Singh
